--- a/public/templates/turns.xlsx
+++ b/public/templates/turns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aacalderon\Temp\Datos Kapatax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7CA0F5-49A0-443D-898E-5723F7D2E10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5A171-CD64-4F74-82F8-C18F1617A9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{0CFA45D6-CC81-4B94-954F-6ACA2177D1FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0CFA45D6-CC81-4B94-954F-6ACA2177D1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>NextDay</t>
+    <t>Next Day</t>
   </si>
 </sst>
 </file>
@@ -450,13 +450,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
